--- a/biology/Botanique/Ericaceae/Ericaceae.xlsx
+++ b/biology/Botanique/Ericaceae/Ericaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ericaceae, en français Éricacées, sont une famille de plantes à fleurs (les Angiospermes) de l'ordre des Ericales. Elle compte près de 1 350 espèces de plantes réparties en une centaine de genres[1]. Les genres principaux sont Erica (le genre type), Vaccinium, Gaultheria, Leucopogon, Cavendishia et Arctostaphylos[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ericaceae, en français Éricacées, sont une famille de plantes à fleurs (les Angiospermes) de l'ordre des Ericales. Elle compte près de 1 350 espèces de plantes réparties en une centaine de genres. Les genres principaux sont Erica (le genre type), Vaccinium, Gaultheria, Leucopogon, Cavendishia et Arctostaphylos.
 C'est notamment la famille du raisin d'ours, de la myrtille, de l'airelle, des rhododendrons et des bruyères. Parmi les petits arbres de la famille des Éricacées, on peut aussi citer l'arbousier, originaire du bassin méditerranéen.
-C'est une famille plutôt cosmopolite des zones froides ou tempérées à basse altitude, jusqu'aux zones tropicales en montagne. Elle est faiblement représentée en Asie du sud. Beaucoup d'espèces se développent sur des sols à faibles teneurs en nutriments du Mor (milieux acides, pauvres en azote et mal drainés comme les forêts boréales, les landes et la toundra). L'adaptation à ces conditions peu favorables est facilitée par l'association avec des champignons symbiotiques comme Pezoloma ericae, par l'intermédiaire des mycorhizes éricoïdes[2].
+C'est une famille plutôt cosmopolite des zones froides ou tempérées à basse altitude, jusqu'aux zones tropicales en montagne. Elle est faiblement représentée en Asie du sud. Beaucoup d'espèces se développent sur des sols à faibles teneurs en nutriments du Mor (milieux acides, pauvres en azote et mal drainés comme les forêts boréales, les landes et la toundra). L'adaptation à ces conditions peu favorables est facilitée par l'association avec des champignons symbiotiques comme Pezoloma ericae, par l'intermédiaire des mycorhizes éricoïdes.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Erica, du grec ἐρείκη / ereíkê, la « bruyère (arborescente) » Erica arborea L.
 </t>
@@ -544,9 +558,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification phylogénétique incorpore aux Ericaceae les familles suivantes qui deviennent donc synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification phylogénétique incorpore aux Ericaceae les familles suivantes qui deviennent donc synonymes :
 Andromedaceae
 Arbutaceae
 Arctostaphylaceae
@@ -595,9 +611,11 @@
           <t>Liste des sous-familles et tribus</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GRIN            (10 juin 2021)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GRIN            (10 juin 2021) :
 Arbutoideae
 Cassiopoideae
 Enkianthoideae
@@ -654,9 +672,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (10 juin 2021)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (10 juin 2021) :
 Acrothamnus Quinn
 Acrothrix Clem. ex Airy Shaw, 1966
 Acrotiche Poir., 1816
